--- a/SA_Locations/SA_Location_Alaska.xlsx
+++ b/SA_Locations/SA_Location_Alaska.xlsx
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>159.555</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>32.766</v>
       </c>
       <c r="D3" t="n">
-        <v>26.955</v>
+        <v>191.97</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.828</v>
+        <v>93.983</v>
       </c>
       <c r="G3" t="n">
-        <v>25.738</v>
+        <v>83.22799999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>12.09</v>
+        <v>10.755</v>
       </c>
       <c r="I3" t="n">
-        <v>12.09</v>
+        <v>10.755</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>925.7102000000001</v>
+        <v>124.1478</v>
       </c>
       <c r="L3" t="n">
-        <v>25.738</v>
+        <v>83.22799999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>899.9721999999999</v>
+        <v>40.9198</v>
       </c>
       <c r="N3" t="n">
-        <v>166.1722</v>
+        <v>40.9198</v>
       </c>
       <c r="O3" t="n">
-        <v>733.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>163.316</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.089</v>
       </c>
       <c r="D3" t="n">
-        <v>26.955</v>
+        <v>185.156</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.828</v>
+        <v>98.756</v>
       </c>
       <c r="G3" t="n">
-        <v>25.738</v>
+        <v>84.633</v>
       </c>
       <c r="H3" t="n">
-        <v>12.09</v>
+        <v>14.123</v>
       </c>
       <c r="I3" t="n">
-        <v>12.09</v>
+        <v>14.123</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>983.9069999999999</v>
+        <v>104.0642</v>
       </c>
       <c r="L3" t="n">
-        <v>25.738</v>
+        <v>84.63200000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>958.1689999999999</v>
+        <v>19.4322</v>
       </c>
       <c r="N3" t="n">
-        <v>148.409</v>
+        <v>19.4322</v>
       </c>
       <c r="O3" t="n">
-        <v>809.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>159.593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>34.991</v>
       </c>
       <c r="D3" t="n">
-        <v>26.955</v>
+        <v>181.402</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.828</v>
+        <v>102.499</v>
       </c>
       <c r="G3" t="n">
-        <v>25.738</v>
+        <v>83.258</v>
       </c>
       <c r="H3" t="n">
-        <v>12.09</v>
+        <v>19.241</v>
       </c>
       <c r="I3" t="n">
-        <v>12.09</v>
+        <v>19.241</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>761.5110000000001</v>
+        <v>89.66099999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>25.738</v>
+        <v>83.258</v>
       </c>
       <c r="M3" t="n">
-        <v>735.773</v>
+        <v>6.403</v>
       </c>
       <c r="N3" t="n">
-        <v>158.033</v>
+        <v>6.403</v>
       </c>
       <c r="O3" t="n">
-        <v>577.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>169.233</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.583</v>
       </c>
       <c r="D3" t="n">
-        <v>26.955</v>
+        <v>186.844</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.828</v>
+        <v>101.64</v>
       </c>
       <c r="G3" t="n">
-        <v>25.738</v>
+        <v>86.59699999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>12.09</v>
+        <v>15.043</v>
       </c>
       <c r="I3" t="n">
-        <v>12.09</v>
+        <v>15.043</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>576.2444</v>
+        <v>93.37039999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>25.738</v>
+        <v>86.59699999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>550.5064</v>
+        <v>6.7734</v>
       </c>
       <c r="N3" t="n">
-        <v>82.68640000000001</v>
+        <v>6.7734</v>
       </c>
       <c r="O3" t="n">
-        <v>467.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>163.316</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.089</v>
       </c>
       <c r="D3" t="n">
-        <v>6.814</v>
+        <v>185.156</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.95</v>
+        <v>101.803</v>
       </c>
       <c r="G3" t="n">
-        <v>25.324</v>
+        <v>84.633</v>
       </c>
       <c r="H3" t="n">
-        <v>4.626</v>
+        <v>17.171</v>
       </c>
       <c r="I3" t="n">
-        <v>4.626</v>
+        <v>17.171</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1328.5332</v>
+        <v>91.8758</v>
       </c>
       <c r="L3" t="n">
-        <v>25.324</v>
+        <v>84.63200000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>1303.2092</v>
+        <v>7.243799999999998</v>
       </c>
       <c r="N3" t="n">
-        <v>139.5692</v>
+        <v>7.243799999999998</v>
       </c>
       <c r="O3" t="n">
-        <v>1163.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/SA_Locations/SA_Location_Alaska.xlsx
+++ b/SA_Locations/SA_Location_Alaska.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.3583</v>
+        <v>145.93165</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6606</v>
+        <v>20.3563</v>
       </c>
       <c r="D2" t="n">
-        <v>112.76275</v>
+        <v>101.3776</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>78.80905</v>
+        <v>78.07019999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>75.179</v>
+        <v>74.44014999999999</v>
       </c>
       <c r="H2" t="n">
         <v>3.63005</v>
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>134.4678</v>
+        <v>133.188</v>
       </c>
       <c r="L2" t="n">
-        <v>75.179</v>
+        <v>74.44</v>
       </c>
       <c r="M2" t="n">
-        <v>59.2888</v>
+        <v>58.748</v>
       </c>
       <c r="N2" t="n">
-        <v>59.2888</v>
+        <v>58.748</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.555</v>
+        <v>160.465</v>
       </c>
       <c r="C3" t="n">
-        <v>32.766</v>
+        <v>30.967</v>
       </c>
       <c r="D3" t="n">
-        <v>191.97</v>
+        <v>195.663</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>93.983</v>
+        <v>92.961</v>
       </c>
       <c r="G3" t="n">
-        <v>83.22799999999999</v>
+        <v>82.113</v>
       </c>
       <c r="H3" t="n">
-        <v>10.755</v>
+        <v>10.848</v>
       </c>
       <c r="I3" t="n">
-        <v>10.755</v>
+        <v>10.848</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>124.1478</v>
+        <v>123.7288</v>
       </c>
       <c r="L3" t="n">
-        <v>83.22799999999999</v>
+        <v>82.113</v>
       </c>
       <c r="M3" t="n">
-        <v>40.9198</v>
+        <v>41.6158</v>
       </c>
       <c r="N3" t="n">
-        <v>40.9198</v>
+        <v>41.6158</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,43 +619,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.161</v>
+        <v>213.143</v>
       </c>
       <c r="C4" t="n">
-        <v>27.227</v>
+        <v>27.205</v>
       </c>
       <c r="D4" t="n">
-        <v>160.47</v>
+        <v>160.383</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>118.214</v>
+        <v>117.289</v>
       </c>
       <c r="G4" t="n">
-        <v>98.68724109589041</v>
+        <v>97.7056684931507</v>
       </c>
       <c r="H4" t="n">
-        <v>19.527</v>
+        <v>19.583</v>
       </c>
       <c r="I4" t="n">
-        <v>19.527</v>
+        <v>19.583</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>126.7348</v>
+        <v>127.362</v>
       </c>
       <c r="L4" t="n">
-        <v>98.687</v>
+        <v>97.706</v>
       </c>
       <c r="M4" t="n">
-        <v>28.0478</v>
+        <v>29.656</v>
       </c>
       <c r="N4" t="n">
-        <v>28.0478</v>
+        <v>29.656</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.16845</v>
+        <v>171.78735</v>
       </c>
       <c r="C2" t="n">
-        <v>14.97155</v>
+        <v>22.52605000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>117.5974</v>
+        <v>102.40185</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.13619999999999</v>
+        <v>82.8955</v>
       </c>
       <c r="G2" t="n">
-        <v>84.13619999999999</v>
+        <v>82.8955</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>116.371</v>
+        <v>114.911</v>
       </c>
       <c r="L2" t="n">
-        <v>84.136</v>
+        <v>82.895</v>
       </c>
       <c r="M2" t="n">
-        <v>32.235</v>
+        <v>32.016</v>
       </c>
       <c r="N2" t="n">
-        <v>32.235</v>
+        <v>32.016</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.316</v>
+        <v>166.489</v>
       </c>
       <c r="C3" t="n">
-        <v>36.089</v>
+        <v>36.637</v>
       </c>
       <c r="D3" t="n">
-        <v>185.156</v>
+        <v>186.735</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>98.756</v>
+        <v>97.649</v>
       </c>
       <c r="G3" t="n">
-        <v>84.633</v>
+        <v>84.441</v>
       </c>
       <c r="H3" t="n">
-        <v>14.123</v>
+        <v>13.208</v>
       </c>
       <c r="I3" t="n">
-        <v>14.123</v>
+        <v>13.208</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>104.0642</v>
+        <v>102.9862</v>
       </c>
       <c r="L3" t="n">
-        <v>84.63200000000001</v>
+        <v>84.441</v>
       </c>
       <c r="M3" t="n">
-        <v>19.4322</v>
+        <v>18.5452</v>
       </c>
       <c r="N3" t="n">
-        <v>19.4322</v>
+        <v>18.5452</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.047</v>
+        <v>344.229</v>
       </c>
       <c r="C4" t="n">
-        <v>41.802</v>
+        <v>80.093</v>
       </c>
       <c r="D4" t="n">
-        <v>204.676</v>
+        <v>126.19</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="G4" t="n">
-        <v>155.6815643835616</v>
+        <v>144.1936630136986</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="L4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.5085</v>
+        <v>161.90775</v>
       </c>
       <c r="C2" t="n">
-        <v>14.8678</v>
+        <v>23.8401</v>
       </c>
       <c r="D2" t="n">
-        <v>114.3332</v>
+        <v>96.27430000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.62275</v>
+        <v>83.40344999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>80.99269999999999</v>
+        <v>79.7734</v>
       </c>
       <c r="H2" t="n">
         <v>3.63005</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>107.3712</v>
+        <v>105.1992</v>
       </c>
       <c r="L2" t="n">
-        <v>80.99299999999999</v>
+        <v>79.773</v>
       </c>
       <c r="M2" t="n">
-        <v>26.3782</v>
+        <v>25.4262</v>
       </c>
       <c r="N2" t="n">
-        <v>26.3782</v>
+        <v>25.4262</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.593</v>
+        <v>164.704</v>
       </c>
       <c r="C3" t="n">
-        <v>34.991</v>
+        <v>34.992</v>
       </c>
       <c r="D3" t="n">
-        <v>181.402</v>
+        <v>181.403</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>102.499</v>
+        <v>101.44</v>
       </c>
       <c r="G3" t="n">
-        <v>83.258</v>
+        <v>83.59099999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>19.241</v>
+        <v>17.849</v>
       </c>
       <c r="I3" t="n">
-        <v>19.241</v>
+        <v>17.849</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>89.66099999999999</v>
+        <v>88.19619999999998</v>
       </c>
       <c r="L3" t="n">
-        <v>83.258</v>
+        <v>83.59099999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>6.403</v>
+        <v>4.605199999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>6.403</v>
+        <v>4.605199999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.047</v>
+        <v>344.229</v>
       </c>
       <c r="C4" t="n">
-        <v>41.802</v>
+        <v>80.093</v>
       </c>
       <c r="D4" t="n">
-        <v>204.676</v>
+        <v>126.19</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="G4" t="n">
-        <v>155.6815643835616</v>
+        <v>144.1936630136986</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="L4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.5964</v>
+        <v>163.8504500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>18.1463</v>
+        <v>28.37445</v>
       </c>
       <c r="D2" t="n">
-        <v>129.3306499999999</v>
+        <v>108.3911</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>85.94045000000001</v>
+        <v>84.74864999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>82.3104</v>
+        <v>81.11859999999999</v>
       </c>
       <c r="H2" t="n">
         <v>3.63005</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>89.4284</v>
+        <v>88.48780000000002</v>
       </c>
       <c r="L2" t="n">
-        <v>82.31</v>
+        <v>81.119</v>
       </c>
       <c r="M2" t="n">
-        <v>7.118399999999999</v>
+        <v>7.3688</v>
       </c>
       <c r="N2" t="n">
-        <v>7.118399999999999</v>
+        <v>7.3688</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.233</v>
+        <v>169.726</v>
       </c>
       <c r="C3" t="n">
-        <v>36.583</v>
+        <v>36.584</v>
       </c>
       <c r="D3" t="n">
         <v>186.844</v>
@@ -1311,31 +1311,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>101.64</v>
+        <v>100.46</v>
       </c>
       <c r="G3" t="n">
-        <v>86.59699999999999</v>
+        <v>85.465</v>
       </c>
       <c r="H3" t="n">
-        <v>15.043</v>
+        <v>14.996</v>
       </c>
       <c r="I3" t="n">
-        <v>15.043</v>
+        <v>14.996</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>93.37039999999999</v>
+        <v>92.22260000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>86.59699999999999</v>
+        <v>85.465</v>
       </c>
       <c r="M3" t="n">
-        <v>6.7734</v>
+        <v>6.757599999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>6.7734</v>
+        <v>6.757599999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.047</v>
+        <v>344.229</v>
       </c>
       <c r="C4" t="n">
-        <v>41.802</v>
+        <v>80.093</v>
       </c>
       <c r="D4" t="n">
-        <v>204.676</v>
+        <v>126.19</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="G4" t="n">
-        <v>155.6815643835616</v>
+        <v>144.1936630136986</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="L4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.54015</v>
+        <v>160.5908</v>
       </c>
       <c r="C2" t="n">
-        <v>16.15635</v>
+        <v>23.49909999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>120.3306</v>
+        <v>105.49475</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.25775</v>
+        <v>83.139</v>
       </c>
       <c r="G2" t="n">
-        <v>80.62769999999999</v>
+        <v>79.50895</v>
       </c>
       <c r="H2" t="n">
         <v>3.63005</v>
@@ -1520,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>98.58539999999999</v>
+        <v>97.22940000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>80.628</v>
+        <v>79.509</v>
       </c>
       <c r="M2" t="n">
-        <v>17.9574</v>
+        <v>17.7204</v>
       </c>
       <c r="N2" t="n">
-        <v>17.9574</v>
+        <v>17.7204</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.316</v>
+        <v>165.676</v>
       </c>
       <c r="C3" t="n">
-        <v>36.089</v>
+        <v>36.256</v>
       </c>
       <c r="D3" t="n">
-        <v>185.156</v>
+        <v>184.818</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>101.803</v>
+        <v>100.758</v>
       </c>
       <c r="G3" t="n">
-        <v>84.633</v>
+        <v>84.10299999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>17.171</v>
+        <v>16.655</v>
       </c>
       <c r="I3" t="n">
-        <v>17.171</v>
+        <v>16.655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>91.8758</v>
+        <v>90.501</v>
       </c>
       <c r="L3" t="n">
-        <v>84.63200000000001</v>
+        <v>84.10299999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>7.243799999999998</v>
+        <v>6.398000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>7.243799999999998</v>
+        <v>6.398000000000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.047</v>
+        <v>344.229</v>
       </c>
       <c r="C4" t="n">
-        <v>41.802</v>
+        <v>80.093</v>
       </c>
       <c r="D4" t="n">
-        <v>204.676</v>
+        <v>126.19</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="G4" t="n">
-        <v>155.6815643835616</v>
+        <v>144.1936630136986</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="L4" t="n">
-        <v>155.682</v>
+        <v>144.194</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>

--- a/SA_Locations/SA_Location_Alaska.xlsx
+++ b/SA_Locations/SA_Location_Alaska.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,43 +521,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.93165</v>
+        <v>44.2768</v>
       </c>
       <c r="C2" t="n">
-        <v>20.3563</v>
+        <v>16.16415</v>
       </c>
       <c r="D2" t="n">
-        <v>101.3776</v>
+        <v>108.53255</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>78.07019999999999</v>
+        <v>14511.2635</v>
       </c>
       <c r="G2" t="n">
-        <v>74.44014999999999</v>
+        <v>7439.0676</v>
       </c>
       <c r="H2" t="n">
-        <v>3.63005</v>
+        <v>7072.195849999999</v>
       </c>
       <c r="I2" t="n">
-        <v>3.63005</v>
+        <v>7072.195849999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>133.188</v>
+        <v>16526.7552</v>
       </c>
       <c r="L2" t="n">
-        <v>74.44</v>
+        <v>7439.064</v>
       </c>
       <c r="M2" t="n">
-        <v>58.748</v>
+        <v>9087.691200000001</v>
       </c>
       <c r="N2" t="n">
-        <v>58.748</v>
+        <v>9087.691200000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.465</v>
+        <v>45.498</v>
       </c>
       <c r="C3" t="n">
-        <v>30.967</v>
+        <v>16.655</v>
       </c>
       <c r="D3" t="n">
-        <v>195.663</v>
+        <v>107.786</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.961</v>
+        <v>14665.055</v>
       </c>
       <c r="G3" t="n">
-        <v>82.113</v>
+        <v>7593.828</v>
       </c>
       <c r="H3" t="n">
-        <v>10.848</v>
+        <v>7071.227</v>
       </c>
       <c r="I3" t="n">
-        <v>10.848</v>
+        <v>7071.227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>123.7288</v>
+        <v>16520.9122</v>
       </c>
       <c r="L3" t="n">
-        <v>82.113</v>
+        <v>7593.856</v>
       </c>
       <c r="M3" t="n">
-        <v>41.6158</v>
+        <v>8927.056200000001</v>
       </c>
       <c r="N3" t="n">
-        <v>41.6158</v>
+        <v>8927.056200000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.143</v>
+        <v>53.37</v>
       </c>
       <c r="C4" t="n">
-        <v>27.205</v>
+        <v>24.512</v>
       </c>
       <c r="D4" t="n">
-        <v>160.383</v>
+        <v>120.398</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>117.289</v>
+        <v>16950.65</v>
       </c>
       <c r="G4" t="n">
-        <v>97.7056684931507</v>
+        <v>8903.615</v>
       </c>
       <c r="H4" t="n">
-        <v>19.583</v>
+        <v>8047.035</v>
       </c>
       <c r="I4" t="n">
-        <v>19.583</v>
+        <v>8047.035</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>127.362</v>
+        <v>16619.2562</v>
       </c>
       <c r="L4" t="n">
-        <v>97.706</v>
+        <v>8903.615</v>
       </c>
       <c r="M4" t="n">
-        <v>29.656</v>
+        <v>7715.6412</v>
       </c>
       <c r="N4" t="n">
-        <v>29.656</v>
+        <v>7715.6412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,43 +764,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171.78735</v>
+        <v>45.36810000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>22.52605000000001</v>
+        <v>18.15915</v>
       </c>
       <c r="D2" t="n">
-        <v>102.40185</v>
+        <v>100.90225</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>82.8955</v>
+        <v>14753.44595</v>
       </c>
       <c r="G2" t="n">
-        <v>82.8955</v>
+        <v>7585.22845</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7168.217599999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7168.217599999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>114.911</v>
+        <v>15471.348</v>
       </c>
       <c r="L2" t="n">
-        <v>82.895</v>
+        <v>7585.219</v>
       </c>
       <c r="M2" t="n">
-        <v>32.016</v>
+        <v>7886.128999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>32.016</v>
+        <v>7886.128999999999</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.489</v>
+        <v>45.888</v>
       </c>
       <c r="C3" t="n">
-        <v>36.637</v>
+        <v>17.583</v>
       </c>
       <c r="D3" t="n">
-        <v>186.735</v>
+        <v>103.733</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>97.649</v>
+        <v>14923.843</v>
       </c>
       <c r="G3" t="n">
-        <v>84.441</v>
+        <v>7644.391</v>
       </c>
       <c r="H3" t="n">
-        <v>13.208</v>
+        <v>7279.452</v>
       </c>
       <c r="I3" t="n">
-        <v>13.208</v>
+        <v>7279.452</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>102.9862</v>
+        <v>15475.711</v>
       </c>
       <c r="L3" t="n">
-        <v>84.441</v>
+        <v>7644.437</v>
       </c>
       <c r="M3" t="n">
-        <v>18.5452</v>
+        <v>7831.273999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>18.5452</v>
+        <v>7831.273999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.229</v>
+        <v>57.999</v>
       </c>
       <c r="C4" t="n">
-        <v>80.093</v>
+        <v>45.445</v>
       </c>
       <c r="D4" t="n">
-        <v>126.19</v>
+        <v>58.168</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>144.194</v>
+        <v>19152.842</v>
       </c>
       <c r="G4" t="n">
-        <v>144.1936630136986</v>
+        <v>9780.897999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9371.944</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9371.944</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>144.194</v>
+        <v>15954.9794</v>
       </c>
       <c r="L4" t="n">
-        <v>144.194</v>
+        <v>9780.897999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6174.081400000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6174.081400000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,43 +1007,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.90775</v>
+        <v>42.51525</v>
       </c>
       <c r="C2" t="n">
-        <v>23.8401</v>
+        <v>16.45715</v>
       </c>
       <c r="D2" t="n">
-        <v>96.27430000000001</v>
+        <v>97.2544</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>83.40344999999999</v>
+        <v>14560.5336</v>
       </c>
       <c r="G2" t="n">
-        <v>79.7734</v>
+        <v>7161.709049999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3.63005</v>
+        <v>7398.824599999998</v>
       </c>
       <c r="I2" t="n">
-        <v>3.63005</v>
+        <v>7398.824599999998</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>105.1992</v>
+        <v>16445.7428</v>
       </c>
       <c r="L2" t="n">
-        <v>79.773</v>
+        <v>7161.704</v>
       </c>
       <c r="M2" t="n">
-        <v>25.4262</v>
+        <v>9284.0388</v>
       </c>
       <c r="N2" t="n">
-        <v>25.4262</v>
+        <v>9284.0388</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.704</v>
+        <v>43.153</v>
       </c>
       <c r="C3" t="n">
-        <v>34.992</v>
+        <v>15.683</v>
       </c>
       <c r="D3" t="n">
-        <v>181.403</v>
+        <v>103.283</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>101.44</v>
+        <v>14704.262</v>
       </c>
       <c r="G3" t="n">
-        <v>83.59099999999999</v>
+        <v>7250.951</v>
       </c>
       <c r="H3" t="n">
-        <v>17.849</v>
+        <v>7453.311</v>
       </c>
       <c r="I3" t="n">
-        <v>17.849</v>
+        <v>7453.311</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>88.19619999999998</v>
+        <v>16420.2856</v>
       </c>
       <c r="L3" t="n">
-        <v>83.59099999999999</v>
+        <v>7250.926999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>4.605199999999999</v>
+        <v>9169.3586</v>
       </c>
       <c r="N3" t="n">
-        <v>4.605199999999999</v>
+        <v>9169.3586</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.229</v>
+        <v>57.999</v>
       </c>
       <c r="C4" t="n">
-        <v>80.093</v>
+        <v>45.445</v>
       </c>
       <c r="D4" t="n">
-        <v>126.19</v>
+        <v>58.168</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>144.194</v>
+        <v>19152.842</v>
       </c>
       <c r="G4" t="n">
-        <v>144.1936630136986</v>
+        <v>9780.897999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9371.944</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9371.944</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>144.194</v>
+        <v>16397.1916</v>
       </c>
       <c r="L4" t="n">
-        <v>144.194</v>
+        <v>9780.897999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6616.293599999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6616.293599999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,43 +1250,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8504500000001</v>
+        <v>45.51754999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>28.37445</v>
+        <v>19.7427</v>
       </c>
       <c r="D2" t="n">
-        <v>108.3911</v>
+        <v>97.05465000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.74864999999998</v>
+        <v>15223.1566</v>
       </c>
       <c r="G2" t="n">
-        <v>81.11859999999999</v>
+        <v>7634.800399999998</v>
       </c>
       <c r="H2" t="n">
-        <v>3.63005</v>
+        <v>7588.356250000002</v>
       </c>
       <c r="I2" t="n">
-        <v>3.63005</v>
+        <v>7588.356250000002</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>88.48780000000002</v>
+        <v>13633.1776</v>
       </c>
       <c r="L2" t="n">
-        <v>81.119</v>
+        <v>7634.789999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>7.3688</v>
+        <v>5998.3876</v>
       </c>
       <c r="N2" t="n">
-        <v>7.3688</v>
+        <v>5998.3876</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.726</v>
+        <v>46.498</v>
       </c>
       <c r="C3" t="n">
-        <v>36.584</v>
+        <v>19.27</v>
       </c>
       <c r="D3" t="n">
-        <v>186.844</v>
+        <v>99.985</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>100.46</v>
+        <v>15385.172</v>
       </c>
       <c r="G3" t="n">
-        <v>85.465</v>
+        <v>7752.143</v>
       </c>
       <c r="H3" t="n">
-        <v>14.996</v>
+        <v>7633.029</v>
       </c>
       <c r="I3" t="n">
-        <v>14.996</v>
+        <v>7633.029</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>92.22260000000001</v>
+        <v>13639.2322</v>
       </c>
       <c r="L3" t="n">
-        <v>85.465</v>
+        <v>7752.092</v>
       </c>
       <c r="M3" t="n">
-        <v>6.757599999999999</v>
+        <v>5887.1402</v>
       </c>
       <c r="N3" t="n">
-        <v>6.757599999999999</v>
+        <v>5887.1402</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.229</v>
+        <v>57.999</v>
       </c>
       <c r="C4" t="n">
-        <v>80.093</v>
+        <v>45.445</v>
       </c>
       <c r="D4" t="n">
-        <v>126.19</v>
+        <v>58.168</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>144.194</v>
+        <v>19152.842</v>
       </c>
       <c r="G4" t="n">
-        <v>144.1936630136986</v>
+        <v>9780.897999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9371.944</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9371.944</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>144.194</v>
+        <v>14253.0074</v>
       </c>
       <c r="L4" t="n">
-        <v>144.194</v>
+        <v>9780.897999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4472.109399999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4472.109399999999</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,43 +1493,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.5908</v>
+        <v>45.8683</v>
       </c>
       <c r="C2" t="n">
-        <v>23.49909999999999</v>
+        <v>20.82765</v>
       </c>
       <c r="D2" t="n">
-        <v>105.49475</v>
+        <v>94.01795</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>83.139</v>
+        <v>15328.24835</v>
       </c>
       <c r="G2" t="n">
-        <v>79.50895</v>
+        <v>7694.529699999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3.63005</v>
+        <v>7633.7187</v>
       </c>
       <c r="I2" t="n">
-        <v>3.63005</v>
+        <v>7633.7187</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>97.22940000000001</v>
+        <v>13296.3022</v>
       </c>
       <c r="L2" t="n">
-        <v>79.509</v>
+        <v>7694.512</v>
       </c>
       <c r="M2" t="n">
-        <v>17.7204</v>
+        <v>5601.790199999999</v>
       </c>
       <c r="N2" t="n">
-        <v>17.7204</v>
+        <v>5601.790199999999</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.676</v>
+        <v>46.636</v>
       </c>
       <c r="C3" t="n">
-        <v>36.256</v>
+        <v>20.362</v>
       </c>
       <c r="D3" t="n">
-        <v>184.818</v>
+        <v>93.217</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>100.758</v>
+        <v>15472.532</v>
       </c>
       <c r="G3" t="n">
-        <v>84.10299999999999</v>
+        <v>7759.415</v>
       </c>
       <c r="H3" t="n">
-        <v>16.655</v>
+        <v>7713.117</v>
       </c>
       <c r="I3" t="n">
-        <v>16.655</v>
+        <v>7713.117</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>90.501</v>
+        <v>13305.3338</v>
       </c>
       <c r="L3" t="n">
-        <v>84.10299999999999</v>
+        <v>7759.441000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>6.398000000000001</v>
+        <v>5545.8928</v>
       </c>
       <c r="N3" t="n">
-        <v>6.398000000000001</v>
+        <v>5545.8928</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.229</v>
+        <v>57.999</v>
       </c>
       <c r="C4" t="n">
-        <v>80.093</v>
+        <v>45.445</v>
       </c>
       <c r="D4" t="n">
-        <v>126.19</v>
+        <v>58.168</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>144.194</v>
+        <v>19152.842</v>
       </c>
       <c r="G4" t="n">
-        <v>144.1936630136986</v>
+        <v>9780.897999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9371.944</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9371.944</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>144.194</v>
+        <v>14031.3126</v>
       </c>
       <c r="L4" t="n">
-        <v>144.194</v>
+        <v>9780.897999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4250.4146</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4250.4146</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>